--- a/Code/Results/Cases/Case_7_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_39/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.38474195972746</v>
+        <v>14.06137082379247</v>
       </c>
       <c r="C2">
-        <v>9.613979429869584</v>
+        <v>7.077977435869581</v>
       </c>
       <c r="D2">
-        <v>1.898301669016681</v>
+        <v>5.132578124752007</v>
       </c>
       <c r="E2">
-        <v>6.412298002406651</v>
+        <v>7.926998346635113</v>
       </c>
       <c r="F2">
-        <v>42.54664689212147</v>
+        <v>26.89556787199072</v>
       </c>
       <c r="G2">
-        <v>2.144913726747268</v>
+        <v>2.134517911193287</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.266109508190026</v>
+        <v>6.136518368189272</v>
       </c>
       <c r="K2">
-        <v>15.75699371819324</v>
+        <v>10.98220850646021</v>
       </c>
       <c r="L2">
-        <v>6.810229335344639</v>
+        <v>6.517802541891784</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>32.37778190918829</v>
+        <v>20.3297609674433</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.23104685469141</v>
+        <v>13.22051432894325</v>
       </c>
       <c r="C3">
-        <v>9.002753799924166</v>
+        <v>7.044964373356093</v>
       </c>
       <c r="D3">
-        <v>1.877982741664109</v>
+        <v>4.952946131925544</v>
       </c>
       <c r="E3">
-        <v>6.430107127128497</v>
+        <v>7.882744353347054</v>
       </c>
       <c r="F3">
-        <v>41.46673924077154</v>
+        <v>26.82419011600373</v>
       </c>
       <c r="G3">
-        <v>2.155106858768595</v>
+        <v>2.139679385044715</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.306325814348219</v>
+        <v>6.184956155483055</v>
       </c>
       <c r="K3">
-        <v>14.86394944352986</v>
+        <v>10.31908562902542</v>
       </c>
       <c r="L3">
-        <v>6.696984157825081</v>
+        <v>6.38990027963931</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>31.64145281258979</v>
+        <v>20.41201796708637</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.50243635526394</v>
+        <v>12.68027355054187</v>
       </c>
       <c r="C4">
-        <v>8.609060023940874</v>
+        <v>7.025178937028395</v>
       </c>
       <c r="D4">
-        <v>1.866178249042336</v>
+        <v>4.841056755153912</v>
       </c>
       <c r="E4">
-        <v>6.44295498553651</v>
+        <v>7.858776419024031</v>
       </c>
       <c r="F4">
-        <v>40.82347607799429</v>
+        <v>26.79940995607821</v>
       </c>
       <c r="G4">
-        <v>2.161517777936563</v>
+        <v>2.142949671017287</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.332419673393491</v>
+        <v>6.216182420127442</v>
       </c>
       <c r="K4">
-        <v>14.30000079668388</v>
+        <v>9.889732244750471</v>
       </c>
       <c r="L4">
-        <v>6.630489164954866</v>
+        <v>6.312395053497062</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>31.20611047648929</v>
+        <v>20.4761433230929</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.20071721356456</v>
+        <v>12.4542447277776</v>
       </c>
       <c r="C5">
-        <v>8.443966774606579</v>
+        <v>7.017237577759476</v>
       </c>
       <c r="D5">
-        <v>1.861523368474751</v>
+        <v>4.79512693662464</v>
       </c>
       <c r="E5">
-        <v>6.44866345179313</v>
+        <v>7.849808511603006</v>
       </c>
       <c r="F5">
-        <v>40.56638039928266</v>
+        <v>26.79396298828726</v>
       </c>
       <c r="G5">
-        <v>2.164170756156441</v>
+        <v>2.144308314456723</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.343403505087532</v>
+        <v>6.229280420351409</v>
       </c>
       <c r="K5">
-        <v>14.06648120006577</v>
+        <v>9.70920934072349</v>
       </c>
       <c r="L5">
-        <v>6.604163468644527</v>
+        <v>6.281102783088105</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>31.03291001487456</v>
+        <v>20.50557838824148</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.15033655671229</v>
+        <v>12.41636292957603</v>
       </c>
       <c r="C6">
-        <v>8.416270980313712</v>
+        <v>7.015926238151597</v>
       </c>
       <c r="D6">
-        <v>1.860759459439728</v>
+        <v>4.787482225368571</v>
       </c>
       <c r="E6">
-        <v>6.449639667978974</v>
+        <v>7.848367458546694</v>
       </c>
       <c r="F6">
-        <v>40.52399597814166</v>
+        <v>26.79333532493008</v>
       </c>
       <c r="G6">
-        <v>2.164613786735321</v>
+        <v>2.144535500617629</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.345248472938897</v>
+        <v>6.231477854255582</v>
       </c>
       <c r="K6">
-        <v>14.02748919959775</v>
+        <v>9.678898880191092</v>
       </c>
       <c r="L6">
-        <v>6.599838919250904</v>
+        <v>6.275925324234079</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>31.00440382516875</v>
+        <v>20.5106620944357</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.4983862887836</v>
+        <v>12.67724881854216</v>
       </c>
       <c r="C7">
-        <v>8.606852421707718</v>
+        <v>7.025071346279714</v>
       </c>
       <c r="D7">
-        <v>1.866114858524351</v>
+        <v>4.840438589032454</v>
       </c>
       <c r="E7">
-        <v>6.443030067756215</v>
+        <v>7.858652247991044</v>
       </c>
       <c r="F7">
-        <v>40.81998831199278</v>
+        <v>26.79931784944943</v>
       </c>
       <c r="G7">
-        <v>2.161553390266609</v>
+        <v>2.142967888275159</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.332566388853665</v>
+        <v>6.216357554355469</v>
       </c>
       <c r="K7">
-        <v>14.29686614108258</v>
+        <v>9.887320114382463</v>
       </c>
       <c r="L7">
-        <v>6.630130993683593</v>
+        <v>6.311971809504599</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>31.20375762398367</v>
+        <v>20.47652707695018</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.99129626794799</v>
+        <v>13.77649129513426</v>
       </c>
       <c r="C8">
-        <v>9.407023766277241</v>
+        <v>7.066493569855695</v>
       </c>
       <c r="D8">
-        <v>1.891147936155698</v>
+        <v>5.071010315888032</v>
       </c>
       <c r="E8">
-        <v>6.418036471261977</v>
+        <v>7.911070919619895</v>
       </c>
       <c r="F8">
-        <v>42.1702181042004</v>
+        <v>26.86692198850828</v>
       </c>
       <c r="G8">
-        <v>2.148398073077895</v>
+        <v>2.136276937250317</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.279684123887106</v>
+        <v>6.152911144227632</v>
       </c>
       <c r="K8">
-        <v>15.45242809096045</v>
+        <v>10.75817982367529</v>
       </c>
       <c r="L8">
-        <v>6.770556483267836</v>
+        <v>6.473508596765841</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>32.12040874900003</v>
+        <v>20.35522266426291</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.74946763958848</v>
+        <v>15.73736372859003</v>
       </c>
       <c r="C9">
-        <v>10.8322928753168</v>
+        <v>7.151603619341658</v>
       </c>
       <c r="D9">
-        <v>1.946240760650459</v>
+        <v>5.507876770689077</v>
       </c>
       <c r="E9">
-        <v>6.384599264341214</v>
+        <v>8.039536916994821</v>
       </c>
       <c r="F9">
-        <v>44.97319365958737</v>
+        <v>27.15657351537637</v>
       </c>
       <c r="G9">
-        <v>2.123701412478634</v>
+        <v>2.123932266941823</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.187195645010388</v>
+        <v>6.040304148765252</v>
       </c>
       <c r="K9">
-        <v>17.72968648045669</v>
+        <v>12.28943930683486</v>
       </c>
       <c r="L9">
-        <v>7.069723365166725</v>
+        <v>6.796991420137931</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>34.05178800112108</v>
+        <v>20.23098571320671</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.66546778148608</v>
+        <v>17.05925608881696</v>
       </c>
       <c r="C10">
-        <v>11.79552353155882</v>
+        <v>7.216568565544888</v>
       </c>
       <c r="D10">
-        <v>1.991450754182042</v>
+        <v>5.81644775314969</v>
       </c>
       <c r="E10">
-        <v>6.370126605271796</v>
+        <v>8.149862180509533</v>
       </c>
       <c r="F10">
-        <v>47.12633269215589</v>
+        <v>27.47295597844593</v>
       </c>
       <c r="G10">
-        <v>2.106062577801929</v>
+        <v>2.115297513451584</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.126239995744607</v>
+        <v>5.964820356903305</v>
       </c>
       <c r="K10">
-        <v>19.45416728989163</v>
+        <v>13.30702547066928</v>
       </c>
       <c r="L10">
-        <v>7.303716954077235</v>
+        <v>7.036890077624053</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>35.55448843558086</v>
+        <v>20.21684970502924</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.51282887995727</v>
+        <v>17.67441910732694</v>
       </c>
       <c r="C11">
-        <v>12.21656331574247</v>
+        <v>7.24667110887027</v>
       </c>
       <c r="D11">
-        <v>2.013327757473258</v>
+        <v>5.953607593235743</v>
       </c>
       <c r="E11">
-        <v>6.365881934090353</v>
+        <v>8.203560386879721</v>
       </c>
       <c r="F11">
-        <v>48.12675228748486</v>
+        <v>27.64094576138426</v>
       </c>
       <c r="G11">
-        <v>2.098106412742071</v>
+        <v>2.111454781001558</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.100072675556102</v>
+        <v>5.932070156771698</v>
       </c>
       <c r="K11">
-        <v>20.20624281187408</v>
+        <v>13.74681616845179</v>
       </c>
       <c r="L11">
-        <v>7.413230993846068</v>
+        <v>7.146148778112075</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>36.25716943525287</v>
+        <v>20.22891819337439</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.85218863606902</v>
+        <v>17.90256520454205</v>
       </c>
       <c r="C12">
-        <v>12.37363979693938</v>
+        <v>7.258151021582472</v>
       </c>
       <c r="D12">
-        <v>2.021828009199959</v>
+        <v>6.005048830785214</v>
       </c>
       <c r="E12">
-        <v>6.364624656205777</v>
+        <v>8.224402000194074</v>
       </c>
       <c r="F12">
-        <v>48.50870078635793</v>
+        <v>27.7081406153617</v>
       </c>
       <c r="G12">
-        <v>2.095099453109011</v>
+        <v>2.110011114024386</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.090392893172103</v>
+        <v>5.919898610989029</v>
       </c>
       <c r="K12">
-        <v>20.48655894870372</v>
+        <v>13.91005215714489</v>
       </c>
       <c r="L12">
-        <v>7.455145209805819</v>
+        <v>7.187512781276392</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>36.52611363264722</v>
+        <v>20.23629594808575</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.77771303481773</v>
+        <v>17.85364254933052</v>
       </c>
       <c r="C13">
-        <v>12.33991383563053</v>
+        <v>7.255674995947646</v>
       </c>
       <c r="D13">
-        <v>2.019987246888256</v>
+        <v>5.993992720289368</v>
       </c>
       <c r="E13">
-        <v>6.364879629383499</v>
+        <v>8.219890790426291</v>
       </c>
       <c r="F13">
-        <v>48.42630073980207</v>
+        <v>27.69350788333327</v>
       </c>
       <c r="G13">
-        <v>2.095746861541997</v>
+        <v>2.110321535158508</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.092467331449643</v>
+        <v>5.922509696629207</v>
       </c>
       <c r="K13">
-        <v>20.4263839428436</v>
+        <v>13.87504289470616</v>
       </c>
       <c r="L13">
-        <v>7.446098415103587</v>
+        <v>7.178605167793937</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>36.46806258787149</v>
+        <v>20.23457976671364</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.53901289279522</v>
+        <v>17.69328475019361</v>
       </c>
       <c r="C14">
-        <v>12.22953279462462</v>
+        <v>7.247613939347519</v>
       </c>
       <c r="D14">
-        <v>2.014022580276825</v>
+        <v>5.957849869113259</v>
       </c>
       <c r="E14">
-        <v>6.365771397104762</v>
+        <v>8.205264860029004</v>
       </c>
       <c r="F14">
-        <v>48.15811228230339</v>
+        <v>27.64640148736317</v>
       </c>
       <c r="G14">
-        <v>2.097858934671485</v>
+        <v>2.11133578389697</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.099271691072395</v>
+        <v>5.931064169680092</v>
       </c>
       <c r="K14">
-        <v>20.22939323883675</v>
+        <v>13.76031175637902</v>
       </c>
       <c r="L14">
-        <v>7.416670380548934</v>
+        <v>7.149552171283805</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>36.27923767010945</v>
+        <v>20.22946804102876</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.401950403487</v>
+        <v>17.59443720378411</v>
       </c>
       <c r="C15">
-        <v>12.16161688659255</v>
+        <v>7.242686878922806</v>
       </c>
       <c r="D15">
-        <v>2.010398046951166</v>
+        <v>5.935645458383399</v>
       </c>
       <c r="E15">
-        <v>6.366363653892527</v>
+        <v>8.196372181869473</v>
       </c>
       <c r="F15">
-        <v>47.99424825837122</v>
+        <v>27.61801726523367</v>
       </c>
       <c r="G15">
-        <v>2.099153281412165</v>
+        <v>2.111958513571072</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.103469558305971</v>
+        <v>5.936334079054046</v>
       </c>
       <c r="K15">
-        <v>20.10815321167926</v>
+        <v>13.68960614598449</v>
       </c>
       <c r="L15">
-        <v>7.398702781688055</v>
+        <v>7.131754285059294</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>36.16395255093894</v>
+        <v>20.22670702880997</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.60960535505518</v>
+        <v>17.01837855999189</v>
       </c>
       <c r="C16">
-        <v>11.76767114023818</v>
+        <v>7.214612491608873</v>
       </c>
       <c r="D16">
-        <v>1.990049674039476</v>
+        <v>5.80741617673154</v>
       </c>
       <c r="E16">
-        <v>6.370452214784112</v>
+        <v>8.146423738549858</v>
       </c>
       <c r="F16">
-        <v>47.06138156793256</v>
+        <v>27.46247209686984</v>
       </c>
       <c r="G16">
-        <v>2.106583574762273</v>
+        <v>2.115550296150842</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.127981897979275</v>
+        <v>5.966992766269748</v>
       </c>
       <c r="K16">
-        <v>19.40438039444533</v>
+        <v>13.27782063758686</v>
       </c>
       <c r="L16">
-        <v>7.296621803832931</v>
+        <v>7.029749865185162</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>35.50895919023262</v>
+        <v>20.21644579959845</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.11733241870888</v>
+        <v>16.68146995332329</v>
       </c>
       <c r="C17">
-        <v>11.52167689833009</v>
+        <v>7.197531651822212</v>
       </c>
       <c r="D17">
-        <v>1.977920658788181</v>
+        <v>5.72790154544157</v>
       </c>
       <c r="E17">
-        <v>6.37356884333392</v>
+        <v>8.116683034633802</v>
       </c>
       <c r="F17">
-        <v>46.49451547373945</v>
+        <v>27.37330103508887</v>
       </c>
       <c r="G17">
-        <v>2.11115656515245</v>
+        <v>2.11777504412631</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.143422499583187</v>
+        <v>5.986208806296518</v>
       </c>
       <c r="K17">
-        <v>18.9644624363762</v>
+        <v>13.01929642094199</v>
       </c>
       <c r="L17">
-        <v>7.234784726511532</v>
+        <v>6.967185320791963</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>35.1120977090022</v>
+        <v>20.21499303071977</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.8319029935224</v>
+        <v>16.48588995088277</v>
       </c>
       <c r="C18">
-        <v>11.37856737597838</v>
+        <v>7.187758822189978</v>
       </c>
       <c r="D18">
-        <v>1.971065892046631</v>
+        <v>5.681866445669043</v>
       </c>
       <c r="E18">
-        <v>6.375580705847572</v>
+        <v>8.099907299786118</v>
       </c>
       <c r="F18">
-        <v>46.17043144163834</v>
+        <v>27.32427052628928</v>
       </c>
       <c r="G18">
-        <v>2.113793470255482</v>
+        <v>2.119062734132175</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.1524502033766</v>
+        <v>5.997410676531282</v>
       </c>
       <c r="K18">
-        <v>18.70837172493186</v>
+        <v>12.86842291120401</v>
       </c>
       <c r="L18">
-        <v>7.199506177066779</v>
+        <v>6.931213412960369</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>34.88562219965293</v>
+        <v>20.21588965378699</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.73486828680427</v>
+        <v>16.4192321696068</v>
       </c>
       <c r="C19">
-        <v>11.3298318038499</v>
+        <v>7.184458728927086</v>
       </c>
       <c r="D19">
-        <v>1.968765082741775</v>
+        <v>5.666229366128544</v>
       </c>
       <c r="E19">
-        <v>6.376299149479914</v>
+        <v>8.094283977457698</v>
       </c>
       <c r="F19">
-        <v>46.06103710365493</v>
+        <v>27.30805376788196</v>
       </c>
       <c r="G19">
-        <v>2.114687532998934</v>
+        <v>2.119500133153573</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.15553189082309</v>
+        <v>6.001229028561008</v>
       </c>
       <c r="K19">
-        <v>18.62113281427905</v>
+        <v>12.81696525153805</v>
       </c>
       <c r="L19">
-        <v>7.187611021345859</v>
+        <v>6.919037170649663</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>34.80924602465547</v>
+        <v>20.21648629351611</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.16997228106312</v>
+        <v>16.71745929018417</v>
       </c>
       <c r="C20">
-        <v>11.54803038795581</v>
+        <v>7.199344582899109</v>
       </c>
       <c r="D20">
-        <v>1.979199049534285</v>
+        <v>5.736397385132708</v>
       </c>
       <c r="E20">
-        <v>6.373214285147117</v>
+        <v>8.119814776300368</v>
       </c>
       <c r="F20">
-        <v>46.55465570753933</v>
+        <v>27.38255883296871</v>
       </c>
       <c r="G20">
-        <v>2.11066910182661</v>
+        <v>2.117537385708326</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.141763609182745</v>
+        <v>5.984147759895453</v>
       </c>
       <c r="K20">
-        <v>19.01160806818015</v>
+        <v>13.04704196597788</v>
       </c>
       <c r="L20">
-        <v>7.241337528329004</v>
+        <v>6.973844231554298</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>35.15415850586663</v>
+        <v>20.21496734234897</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.60571343977204</v>
+        <v>17.74051561155055</v>
       </c>
       <c r="C21">
-        <v>12.26201760118246</v>
+        <v>7.249979460916081</v>
       </c>
       <c r="D21">
-        <v>2.015768449933085</v>
+        <v>5.968479685391751</v>
       </c>
       <c r="E21">
-        <v>6.365499845560553</v>
+        <v>8.20954706581176</v>
       </c>
       <c r="F21">
-        <v>48.23680020340712</v>
+        <v>27.66013966295748</v>
       </c>
       <c r="G21">
-        <v>2.097238441613727</v>
+        <v>2.111037568917216</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.097266824314087</v>
+        <v>5.92854524776257</v>
       </c>
       <c r="K21">
-        <v>20.28737418960765</v>
+        <v>13.79410053120068</v>
       </c>
       <c r="L21">
-        <v>7.425302025768644</v>
+        <v>7.158086222603707</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>36.33462160039858</v>
+        <v>20.23089209010989</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.60606417464058</v>
+        <v>18.39569977826897</v>
       </c>
       <c r="C22">
-        <v>12.71493946398068</v>
+        <v>7.283543878984773</v>
       </c>
       <c r="D22">
-        <v>2.04094278332933</v>
+        <v>6.117241850633106</v>
       </c>
       <c r="E22">
-        <v>6.36250601720994</v>
+        <v>8.271149934008816</v>
       </c>
       <c r="F22">
-        <v>49.3544052254616</v>
+        <v>27.86247871550157</v>
       </c>
       <c r="G22">
-        <v>2.088492780163139</v>
+        <v>2.106856157477134</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.069524334108467</v>
+        <v>5.893548977652968</v>
       </c>
       <c r="K22">
-        <v>21.09515578144298</v>
+        <v>14.26310596333661</v>
       </c>
       <c r="L22">
-        <v>7.548123964130482</v>
+        <v>7.278429948508734</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>37.12283966375917</v>
+        <v>20.25773544538911</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.07476702128076</v>
+        <v>18.0485554908066</v>
       </c>
       <c r="C23">
-        <v>12.47442328085474</v>
+        <v>7.265586120788381</v>
       </c>
       <c r="D23">
-        <v>2.027380077323671</v>
+        <v>6.038122223279403</v>
       </c>
       <c r="E23">
-        <v>6.363911570085502</v>
+        <v>8.237999991587634</v>
       </c>
       <c r="F23">
-        <v>48.75620171210432</v>
+        <v>27.75253353247437</v>
       </c>
       <c r="G23">
-        <v>2.093158979171157</v>
+        <v>2.109082028617394</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.084206800902233</v>
+        <v>5.912103516498531</v>
       </c>
       <c r="K23">
-        <v>20.6663419074354</v>
+        <v>14.01454133651637</v>
       </c>
       <c r="L23">
-        <v>7.482332498442481</v>
+        <v>7.214215267998717</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>36.70057648226076</v>
+        <v>20.24185535453126</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.14618132443465</v>
+        <v>16.70119673456646</v>
       </c>
       <c r="C24">
-        <v>11.53612122861256</v>
+        <v>7.198524809950248</v>
       </c>
       <c r="D24">
-        <v>1.978620722414116</v>
+        <v>5.732557413263673</v>
       </c>
       <c r="E24">
-        <v>6.373373896450464</v>
+        <v>8.1183979112781</v>
       </c>
       <c r="F24">
-        <v>46.5274606617092</v>
+        <v>27.37836642979215</v>
       </c>
       <c r="G24">
-        <v>2.110889459313383</v>
+        <v>2.11764480407016</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.142513124490224</v>
+        <v>5.985079078464795</v>
       </c>
       <c r="K24">
-        <v>18.99030343400379</v>
+        <v>13.03450519766719</v>
       </c>
       <c r="L24">
-        <v>7.238374158233192</v>
+        <v>6.970833744292794</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>35.13513757745427</v>
+        <v>20.21497357291127</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.02241477879523</v>
+        <v>15.22827986870643</v>
       </c>
       <c r="C25">
-        <v>10.46177381653461</v>
+        <v>7.12815722889021</v>
       </c>
       <c r="D25">
-        <v>1.930591395556943</v>
+        <v>5.391670814878117</v>
       </c>
       <c r="E25">
-        <v>6.39191874415064</v>
+        <v>8.002001717997185</v>
       </c>
       <c r="F25">
-        <v>44.19848442243737</v>
+        <v>27.06057220624575</v>
       </c>
       <c r="G25">
-        <v>2.1302807437219</v>
+        <v>2.127192559254087</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.211000846165295</v>
+        <v>6.069498743752125</v>
       </c>
       <c r="K25">
-        <v>17.06480753169407</v>
+        <v>11.89410166390988</v>
       </c>
       <c r="L25">
-        <v>6.986281468951515</v>
+        <v>6.708958775580305</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>33.51480824248107</v>
+        <v>20.25162912768664</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_39/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.06137082379247</v>
+        <v>13.970625495554</v>
       </c>
       <c r="C2">
-        <v>7.077977435869581</v>
+        <v>7.212770921509172</v>
       </c>
       <c r="D2">
-        <v>5.132578124752007</v>
+        <v>6.226712893275025</v>
       </c>
       <c r="E2">
-        <v>7.926998346635113</v>
+        <v>8.231000549482511</v>
       </c>
       <c r="F2">
-        <v>26.89556787199072</v>
+        <v>21.32120166095764</v>
       </c>
       <c r="G2">
-        <v>2.134517911193287</v>
+        <v>23.40702548418676</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>2.716383125165104</v>
       </c>
       <c r="J2">
-        <v>6.136518368189272</v>
+        <v>9.621196327580432</v>
       </c>
       <c r="K2">
-        <v>10.98220850646021</v>
+        <v>15.60439148917591</v>
       </c>
       <c r="L2">
-        <v>6.517802541891784</v>
+        <v>5.935595786868784</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.60490956353309</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.008794468741875</v>
       </c>
       <c r="O2">
-        <v>20.3297609674433</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>15.64276902962322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.22051432894325</v>
+        <v>13.06210476636244</v>
       </c>
       <c r="C3">
-        <v>7.044964373356093</v>
+        <v>7.102978484472952</v>
       </c>
       <c r="D3">
-        <v>4.952946131925544</v>
+        <v>5.997071223208575</v>
       </c>
       <c r="E3">
-        <v>7.882744353347054</v>
+        <v>8.083666856775034</v>
       </c>
       <c r="F3">
-        <v>26.82419011600373</v>
+        <v>21.25764022644685</v>
       </c>
       <c r="G3">
-        <v>2.139679385044715</v>
+        <v>23.4144536805705</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>2.909332348040587</v>
       </c>
       <c r="J3">
-        <v>6.184956155483055</v>
+        <v>9.696764021573113</v>
       </c>
       <c r="K3">
-        <v>10.31908562902542</v>
+        <v>15.77075923660113</v>
       </c>
       <c r="L3">
-        <v>6.38990027963931</v>
+        <v>5.909882949198748</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.98094961091267</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.796941817341641</v>
       </c>
       <c r="O3">
-        <v>20.41201796708637</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>15.73863109332063</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.68027355054187</v>
+        <v>12.47043883023051</v>
       </c>
       <c r="C4">
-        <v>7.025178937028395</v>
+        <v>7.034521165139908</v>
       </c>
       <c r="D4">
-        <v>4.841056755153912</v>
+        <v>5.852308077489053</v>
       </c>
       <c r="E4">
-        <v>7.858776419024031</v>
+        <v>7.991898948593974</v>
       </c>
       <c r="F4">
-        <v>26.79940995607821</v>
+        <v>21.22988405422142</v>
       </c>
       <c r="G4">
-        <v>2.142949671017287</v>
+        <v>23.43683658144639</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>3.032135610099082</v>
       </c>
       <c r="J4">
-        <v>6.216182420127442</v>
+        <v>9.746814579097542</v>
       </c>
       <c r="K4">
-        <v>9.889732244750471</v>
+        <v>15.8797353316963</v>
       </c>
       <c r="L4">
-        <v>6.312395053497062</v>
+        <v>5.893653455601109</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.57838510344027</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.663467218414715</v>
       </c>
       <c r="O4">
-        <v>20.4761433230929</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>15.80572020141942</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.4542447277776</v>
+        <v>12.22080448756644</v>
       </c>
       <c r="C5">
-        <v>7.017237577759476</v>
+        <v>7.006378416506692</v>
       </c>
       <c r="D5">
-        <v>4.79512693662464</v>
+        <v>5.792446030694339</v>
       </c>
       <c r="E5">
-        <v>7.849808511603006</v>
+        <v>7.954199571773082</v>
       </c>
       <c r="F5">
-        <v>26.79396298828726</v>
+        <v>21.22134759467718</v>
       </c>
       <c r="G5">
-        <v>2.144308314456723</v>
+        <v>23.45028850057391</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>3.083281622806166</v>
       </c>
       <c r="J5">
-        <v>6.229280420351409</v>
+        <v>9.768110434392142</v>
       </c>
       <c r="K5">
-        <v>9.70920934072349</v>
+        <v>15.92582196026139</v>
       </c>
       <c r="L5">
-        <v>6.281102783088105</v>
+        <v>5.886927299846679</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.40953390535986</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.608277104604723</v>
       </c>
       <c r="O5">
-        <v>20.50557838824148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>15.83506755015896</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.41636292957603</v>
+        <v>12.17883750720179</v>
       </c>
       <c r="C6">
-        <v>7.015926238151597</v>
+        <v>7.00169098888252</v>
       </c>
       <c r="D6">
-        <v>4.787482225368571</v>
+        <v>5.782455828812713</v>
       </c>
       <c r="E6">
-        <v>7.848367458546694</v>
+        <v>7.947922047161779</v>
       </c>
       <c r="F6">
-        <v>26.79333532493008</v>
+        <v>21.22009588317754</v>
       </c>
       <c r="G6">
-        <v>2.144535500617629</v>
+        <v>23.45277928957609</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>3.091841365512815</v>
       </c>
       <c r="J6">
-        <v>6.231477854255582</v>
+        <v>9.771700424548534</v>
       </c>
       <c r="K6">
-        <v>9.678898880191092</v>
+        <v>15.93357488295407</v>
       </c>
       <c r="L6">
-        <v>6.275925324234079</v>
+        <v>5.885803590740012</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.38120918727759</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.599066349642007</v>
       </c>
       <c r="O6">
-        <v>20.5106620944357</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>15.84006017792999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.67724881854216</v>
+        <v>12.46710671606024</v>
       </c>
       <c r="C7">
-        <v>7.025071346279714</v>
+        <v>7.034142594962847</v>
       </c>
       <c r="D7">
-        <v>4.840438589032454</v>
+        <v>5.851504172560737</v>
       </c>
       <c r="E7">
-        <v>7.858652247991044</v>
+        <v>7.991391715915472</v>
       </c>
       <c r="F7">
-        <v>26.79931784944943</v>
+        <v>21.22975777622107</v>
       </c>
       <c r="G7">
-        <v>2.142967888275159</v>
+        <v>23.4370006648658</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>3.032820900803196</v>
       </c>
       <c r="J7">
-        <v>6.216357554355469</v>
+        <v>9.747098162565463</v>
       </c>
       <c r="K7">
-        <v>9.887320114382463</v>
+        <v>15.88035012677958</v>
       </c>
       <c r="L7">
-        <v>6.311971809504599</v>
+        <v>5.893563201708036</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.57612723262039</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.662726059511299</v>
       </c>
       <c r="O7">
-        <v>20.47652707695018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>15.80610793929259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.77649129513426</v>
+        <v>13.6643764350529</v>
       </c>
       <c r="C8">
-        <v>7.066493569855695</v>
+        <v>7.175141084593882</v>
       </c>
       <c r="D8">
-        <v>5.071010315888032</v>
+        <v>6.148356483794356</v>
       </c>
       <c r="E8">
-        <v>7.911070919619895</v>
+        <v>8.180485213957864</v>
       </c>
       <c r="F8">
-        <v>26.86692198850828</v>
+        <v>21.29691145066849</v>
       </c>
       <c r="G8">
-        <v>2.136276937250317</v>
+        <v>23.40579795226236</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>2.782021217104248</v>
       </c>
       <c r="J8">
-        <v>6.152911144227632</v>
+        <v>9.646482783436957</v>
       </c>
       <c r="K8">
-        <v>10.75817982367529</v>
+        <v>15.6603145481229</v>
       </c>
       <c r="L8">
-        <v>6.473508596765841</v>
+        <v>5.926820793699958</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.39385194729221</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.936484586985468</v>
       </c>
       <c r="O8">
-        <v>20.35522266426291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>15.67407671582901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.73736372859003</v>
+        <v>15.74485026347218</v>
       </c>
       <c r="C9">
-        <v>7.151603619341658</v>
+        <v>7.442655779751529</v>
       </c>
       <c r="D9">
-        <v>5.507876770689077</v>
+        <v>6.697694600706063</v>
       </c>
       <c r="E9">
-        <v>8.039536916994821</v>
+        <v>8.539911972464468</v>
       </c>
       <c r="F9">
-        <v>27.15657351537637</v>
+        <v>21.52054107000554</v>
       </c>
       <c r="G9">
-        <v>2.123932266941823</v>
+        <v>23.49258949268502</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>2.323940761515263</v>
       </c>
       <c r="J9">
-        <v>6.040304148765252</v>
+        <v>9.479027588828401</v>
       </c>
       <c r="K9">
-        <v>12.28943930683486</v>
+        <v>15.28483970143616</v>
       </c>
       <c r="L9">
-        <v>6.796991420137931</v>
+        <v>5.988602902119224</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.84014761116517</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.444170769283589</v>
       </c>
       <c r="O9">
-        <v>20.23098571320671</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>15.48331169490961</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.05925608881696</v>
+        <v>17.09943706120472</v>
       </c>
       <c r="C10">
-        <v>7.216568565544888</v>
+        <v>7.660347619359184</v>
       </c>
       <c r="D10">
-        <v>5.81644775314969</v>
+        <v>7.038152683820595</v>
       </c>
       <c r="E10">
-        <v>8.149862180509533</v>
+        <v>8.709071121002884</v>
       </c>
       <c r="F10">
-        <v>27.47295597844593</v>
+        <v>21.63108415087586</v>
       </c>
       <c r="G10">
-        <v>2.115297513451584</v>
+        <v>23.50606939087311</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>2.035380086445366</v>
       </c>
       <c r="J10">
-        <v>5.964820356903305</v>
+        <v>9.351602884732339</v>
       </c>
       <c r="K10">
-        <v>13.30702547066928</v>
+        <v>14.99267408952163</v>
       </c>
       <c r="L10">
-        <v>7.036890077624053</v>
+        <v>6.010154834997204</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.81159918464579</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.724355763325478</v>
       </c>
       <c r="O10">
-        <v>20.21684970502924</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>15.32786809231015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.67441910732694</v>
+        <v>17.57396082675869</v>
       </c>
       <c r="C11">
-        <v>7.24667110887027</v>
+        <v>8.01182655787669</v>
       </c>
       <c r="D11">
-        <v>5.953607593235743</v>
+        <v>6.844855147768525</v>
       </c>
       <c r="E11">
-        <v>8.203560386879721</v>
+        <v>8.080378555379879</v>
       </c>
       <c r="F11">
-        <v>27.64094576138426</v>
+        <v>20.71713577091886</v>
       </c>
       <c r="G11">
-        <v>2.111454781001558</v>
+        <v>22.24437720907973</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>2.942762534934271</v>
       </c>
       <c r="J11">
-        <v>5.932070156771698</v>
+        <v>9.091976516443118</v>
       </c>
       <c r="K11">
-        <v>13.74681616845179</v>
+        <v>14.416457251784</v>
       </c>
       <c r="L11">
-        <v>7.146148778112075</v>
+        <v>5.873330967831868</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.29835728335897</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.234268639130029</v>
       </c>
       <c r="O11">
-        <v>20.22891819337439</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>14.7417651720458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.90256520454205</v>
+        <v>17.69923122462818</v>
       </c>
       <c r="C12">
-        <v>7.258151021582472</v>
+        <v>8.283806561164686</v>
       </c>
       <c r="D12">
-        <v>6.005048830785214</v>
+        <v>6.606927234934229</v>
       </c>
       <c r="E12">
-        <v>8.224402000194074</v>
+        <v>7.581045898424144</v>
       </c>
       <c r="F12">
-        <v>27.7081406153617</v>
+        <v>19.91448862327579</v>
       </c>
       <c r="G12">
-        <v>2.110011114024386</v>
+        <v>21.16508692316153</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.271753754083131</v>
       </c>
       <c r="J12">
-        <v>5.919898610989029</v>
+        <v>8.899464174045333</v>
       </c>
       <c r="K12">
-        <v>13.91005215714489</v>
+        <v>14.00361854673174</v>
       </c>
       <c r="L12">
-        <v>7.187512781276392</v>
+        <v>5.813162635572032</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.51359542833688</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.774545234409882</v>
       </c>
       <c r="O12">
-        <v>20.23629594808575</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>14.27839027114374</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.85364254933052</v>
+        <v>17.56779724760307</v>
       </c>
       <c r="C13">
-        <v>7.255674995947646</v>
+        <v>8.509366572618571</v>
       </c>
       <c r="D13">
-        <v>5.993992720289368</v>
+        <v>6.315370435294001</v>
       </c>
       <c r="E13">
-        <v>8.219890790426291</v>
+        <v>7.162395774658014</v>
       </c>
       <c r="F13">
-        <v>27.69350788333327</v>
+        <v>19.14780665302002</v>
       </c>
       <c r="G13">
-        <v>2.110321535158508</v>
+        <v>20.16042236834526</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.670516461604748</v>
       </c>
       <c r="J13">
-        <v>5.922509696629207</v>
+        <v>8.747749508740398</v>
       </c>
       <c r="K13">
-        <v>13.87504289470616</v>
+        <v>13.69563369014298</v>
       </c>
       <c r="L13">
-        <v>7.178605167793937</v>
+        <v>5.807812907972234</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.53880073980268</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.308065988962309</v>
       </c>
       <c r="O13">
-        <v>20.23457976671364</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>13.88341963772283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.69328475019361</v>
+        <v>17.35780945417381</v>
       </c>
       <c r="C14">
-        <v>7.247613939347519</v>
+        <v>8.647927243771617</v>
       </c>
       <c r="D14">
-        <v>5.957849869113259</v>
+        <v>6.084627087641548</v>
       </c>
       <c r="E14">
-        <v>8.205264860029004</v>
+        <v>6.926277895235631</v>
       </c>
       <c r="F14">
-        <v>27.64640148736317</v>
+        <v>18.63286388430264</v>
       </c>
       <c r="G14">
-        <v>2.11133578389697</v>
+        <v>19.50049920173145</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.669030382383617</v>
       </c>
       <c r="J14">
-        <v>5.931064169680092</v>
+        <v>8.661687809140508</v>
       </c>
       <c r="K14">
-        <v>13.76031175637902</v>
+        <v>13.5337363276808</v>
       </c>
       <c r="L14">
-        <v>7.149552171283805</v>
+        <v>5.836045778944818</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.47087652622177</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.982819651013202</v>
       </c>
       <c r="O14">
-        <v>20.22946804102876</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>13.64257267183535</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.59443720378411</v>
+        <v>17.2508049186622</v>
       </c>
       <c r="C15">
-        <v>7.242686878922806</v>
+        <v>8.66907027582848</v>
       </c>
       <c r="D15">
-        <v>5.935645458383399</v>
+        <v>6.017025110742382</v>
       </c>
       <c r="E15">
-        <v>8.196372181869473</v>
+        <v>6.877221747244004</v>
       </c>
       <c r="F15">
-        <v>27.61801726523367</v>
+        <v>18.5173915397624</v>
       </c>
       <c r="G15">
-        <v>2.111958513571072</v>
+        <v>19.3593334160743</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.902492429834411</v>
       </c>
       <c r="J15">
-        <v>5.936334079054046</v>
+        <v>8.649714922155409</v>
       </c>
       <c r="K15">
-        <v>13.68960614598449</v>
+        <v>13.51565648549159</v>
       </c>
       <c r="L15">
-        <v>7.131754285059294</v>
+        <v>5.846134577408034</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.41310335893875</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.900628377697836</v>
       </c>
       <c r="O15">
-        <v>20.22670702880997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>13.5995059348669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.01837855999189</v>
+        <v>16.71556693121737</v>
       </c>
       <c r="C16">
-        <v>7.214612491608873</v>
+        <v>8.530466968761347</v>
       </c>
       <c r="D16">
-        <v>5.80741617673154</v>
+        <v>5.919771384093826</v>
       </c>
       <c r="E16">
-        <v>8.146423738549858</v>
+        <v>6.884429054001558</v>
       </c>
       <c r="F16">
-        <v>27.46247209686984</v>
+        <v>18.62225594906764</v>
       </c>
       <c r="G16">
-        <v>2.115550296150842</v>
+        <v>19.5548735529686</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.711564076007607</v>
       </c>
       <c r="J16">
-        <v>5.966992766269748</v>
+        <v>8.735876782226622</v>
       </c>
       <c r="K16">
-        <v>13.27782063758686</v>
+        <v>13.70779830625807</v>
       </c>
       <c r="L16">
-        <v>7.029749865185162</v>
+        <v>5.833317689788183</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.01164556855835</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.863061465979913</v>
       </c>
       <c r="O16">
-        <v>20.21644579959845</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>13.74879882610319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.68146995332329</v>
+        <v>16.41302875517648</v>
       </c>
       <c r="C17">
-        <v>7.197531651822212</v>
+        <v>8.347530330053168</v>
       </c>
       <c r="D17">
-        <v>5.72790154544157</v>
+        <v>5.971109408167383</v>
       </c>
       <c r="E17">
-        <v>8.116683034633802</v>
+        <v>7.005269618003168</v>
       </c>
       <c r="F17">
-        <v>27.37330103508887</v>
+        <v>18.9756782525905</v>
       </c>
       <c r="G17">
-        <v>2.11777504412631</v>
+        <v>20.05289058002836</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>6.005913322065959</v>
       </c>
       <c r="J17">
-        <v>5.986208806296518</v>
+        <v>8.847204357862051</v>
       </c>
       <c r="K17">
-        <v>13.01929642094199</v>
+        <v>13.9381256874473</v>
       </c>
       <c r="L17">
-        <v>6.967185320791963</v>
+        <v>5.804109687145447</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.73499643958599</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.00643680365127</v>
       </c>
       <c r="O17">
-        <v>20.21499303071977</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>13.98954490783725</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.48588995088277</v>
+        <v>16.2848081099439</v>
       </c>
       <c r="C18">
-        <v>7.187758822189978</v>
+        <v>8.114107325648432</v>
       </c>
       <c r="D18">
-        <v>5.681866445669043</v>
+        <v>6.156438438634863</v>
       </c>
       <c r="E18">
-        <v>8.099907299786118</v>
+        <v>7.291262219536879</v>
       </c>
       <c r="F18">
-        <v>27.32427052628928</v>
+        <v>19.58517488703467</v>
       </c>
       <c r="G18">
-        <v>2.119062734132175</v>
+        <v>20.87095819805327</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.813143326541534</v>
       </c>
       <c r="J18">
-        <v>5.997410676531282</v>
+        <v>8.993907970881882</v>
       </c>
       <c r="K18">
-        <v>12.86842291120401</v>
+        <v>14.23738839898491</v>
       </c>
       <c r="L18">
-        <v>6.931213412960369</v>
+        <v>5.787529100936758</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.54043928454139</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.337516151653849</v>
       </c>
       <c r="O18">
-        <v>20.21588965378699</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>14.33910966996814</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.4192321696068</v>
+        <v>16.30864865183432</v>
       </c>
       <c r="C19">
-        <v>7.184458728927086</v>
+        <v>7.86993917551329</v>
       </c>
       <c r="D19">
-        <v>5.666229366128544</v>
+        <v>6.433714548567678</v>
       </c>
       <c r="E19">
-        <v>8.094283977457698</v>
+        <v>7.758407289291615</v>
       </c>
       <c r="F19">
-        <v>27.30805376788196</v>
+        <v>20.36578997561509</v>
       </c>
       <c r="G19">
-        <v>2.119500133153573</v>
+        <v>21.90242267755469</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.439860338900672</v>
       </c>
       <c r="J19">
-        <v>6.001229028561008</v>
+        <v>9.161627599783364</v>
       </c>
       <c r="K19">
-        <v>12.81696525153805</v>
+        <v>14.58733745755381</v>
       </c>
       <c r="L19">
-        <v>6.919037170649663</v>
+        <v>5.826262405415748</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.43020820144366</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.813134221464718</v>
       </c>
       <c r="O19">
-        <v>20.21648629351611</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>14.7592909645542</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.71745929018417</v>
+        <v>16.75384757282712</v>
       </c>
       <c r="C20">
-        <v>7.199344582899109</v>
+        <v>7.604795435921688</v>
       </c>
       <c r="D20">
-        <v>5.736397385132708</v>
+        <v>6.948457537580523</v>
       </c>
       <c r="E20">
-        <v>8.119814776300368</v>
+        <v>8.661157904676855</v>
       </c>
       <c r="F20">
-        <v>27.38255883296871</v>
+        <v>21.5929812685783</v>
       </c>
       <c r="G20">
-        <v>2.117537385708326</v>
+        <v>23.48898244095022</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>2.109345347494414</v>
       </c>
       <c r="J20">
-        <v>5.984147759895453</v>
+        <v>9.382692913231327</v>
       </c>
       <c r="K20">
-        <v>13.04704196597788</v>
+        <v>15.06457664864564</v>
       </c>
       <c r="L20">
-        <v>6.973844231554298</v>
+        <v>6.003570829386542</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.56366724307296</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.648677899289782</v>
       </c>
       <c r="O20">
-        <v>20.21496734234897</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>15.36286775862141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.74051561155055</v>
+        <v>17.76249994257439</v>
       </c>
       <c r="C21">
-        <v>7.249979460916081</v>
+        <v>7.727067159687431</v>
       </c>
       <c r="D21">
-        <v>5.968479685391751</v>
+        <v>7.263333549415019</v>
       </c>
       <c r="E21">
-        <v>8.20954706581176</v>
+        <v>8.922514706352539</v>
       </c>
       <c r="F21">
-        <v>27.66013966295748</v>
+        <v>21.8723171923154</v>
       </c>
       <c r="G21">
-        <v>2.111037568917216</v>
+        <v>23.76387650912788</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>1.851752902455744</v>
       </c>
       <c r="J21">
-        <v>5.92854524776257</v>
+        <v>9.32842618120932</v>
       </c>
       <c r="K21">
-        <v>13.79410053120068</v>
+        <v>14.93527151075008</v>
       </c>
       <c r="L21">
-        <v>7.158086222603707</v>
+        <v>6.05343478491154</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.26556361279687</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.969143019865276</v>
       </c>
       <c r="O21">
-        <v>20.23089209010989</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>15.35344165812544</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.39569977826897</v>
+        <v>18.38638810234415</v>
       </c>
       <c r="C22">
-        <v>7.283543878984773</v>
+        <v>7.819600168113959</v>
       </c>
       <c r="D22">
-        <v>6.117241850633106</v>
+        <v>7.443663992630878</v>
       </c>
       <c r="E22">
-        <v>8.271149934008816</v>
+        <v>9.047037495687976</v>
       </c>
       <c r="F22">
-        <v>27.86247871550157</v>
+        <v>22.00874736165154</v>
       </c>
       <c r="G22">
-        <v>2.106856157477134</v>
+        <v>23.8876939410288</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>1.700007487032017</v>
       </c>
       <c r="J22">
-        <v>5.893548977652968</v>
+        <v>9.284782524841347</v>
       </c>
       <c r="K22">
-        <v>14.26310596333661</v>
+        <v>14.83136903139714</v>
       </c>
       <c r="L22">
-        <v>7.278429948508734</v>
+        <v>6.074475411672824</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.70984187223677</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.137032757890905</v>
       </c>
       <c r="O22">
-        <v>20.25773544538911</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>15.32584446784876</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.0485554908066</v>
+        <v>18.05602922491964</v>
       </c>
       <c r="C23">
-        <v>7.265586120788381</v>
+        <v>7.770343101144787</v>
       </c>
       <c r="D23">
-        <v>6.038122223279403</v>
+        <v>7.347884752001513</v>
       </c>
       <c r="E23">
-        <v>8.237999991587634</v>
+        <v>8.980750406361505</v>
       </c>
       <c r="F23">
-        <v>27.75253353247437</v>
+        <v>21.93485966029425</v>
       </c>
       <c r="G23">
-        <v>2.109082028617394</v>
+        <v>23.81971146637631</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>1.780701759201723</v>
       </c>
       <c r="J23">
-        <v>5.912103516498531</v>
+        <v>9.307702497425744</v>
       </c>
       <c r="K23">
-        <v>14.01454133651637</v>
+        <v>14.8860995642967</v>
       </c>
       <c r="L23">
-        <v>7.214215267998717</v>
+        <v>6.063275173611701</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.47440570435912</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.047829297739607</v>
       </c>
       <c r="O23">
-        <v>20.24185535453126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>15.33967141495113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.70119673456646</v>
+        <v>16.74705545308875</v>
       </c>
       <c r="C24">
-        <v>7.198524809950248</v>
+        <v>7.581014145832296</v>
       </c>
       <c r="D24">
-        <v>5.732557413263673</v>
+        <v>6.975090226942999</v>
       </c>
       <c r="E24">
-        <v>8.1183979112781</v>
+        <v>8.726002166362944</v>
       </c>
       <c r="F24">
-        <v>27.37836642979215</v>
+        <v>21.67834286728797</v>
       </c>
       <c r="G24">
-        <v>2.11764480407016</v>
+        <v>23.60321820983328</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>2.092902265856199</v>
       </c>
       <c r="J24">
-        <v>5.985079078464795</v>
+        <v>9.402545479318089</v>
       </c>
       <c r="K24">
-        <v>13.03450519766719</v>
+        <v>15.1089117117524</v>
       </c>
       <c r="L24">
-        <v>6.970833744292794</v>
+        <v>6.020195639433219</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.54582121045763</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.70131557030731</v>
       </c>
       <c r="O24">
-        <v>20.21497357291127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>15.41139358914751</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.22827986870643</v>
+        <v>15.21048421116422</v>
       </c>
       <c r="C25">
-        <v>7.12815722889021</v>
+        <v>7.371340728497895</v>
       </c>
       <c r="D25">
-        <v>5.391670814878117</v>
+        <v>6.552972441225838</v>
       </c>
       <c r="E25">
-        <v>8.002001717997185</v>
+        <v>8.444035061537679</v>
       </c>
       <c r="F25">
-        <v>27.06057220624575</v>
+        <v>21.44985592266184</v>
       </c>
       <c r="G25">
-        <v>2.127192559254087</v>
+        <v>23.45235394051155</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>2.444344613635638</v>
       </c>
       <c r="J25">
-        <v>6.069498743752125</v>
+        <v>9.521004895687593</v>
       </c>
       <c r="K25">
-        <v>11.89410166390988</v>
+        <v>15.38014596842492</v>
       </c>
       <c r="L25">
-        <v>6.708958775580305</v>
+        <v>5.972246804912672</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.46606546544719</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.310236919846111</v>
       </c>
       <c r="O25">
-        <v>20.25162912768664</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>15.52721214482593</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_39/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.970625495554</v>
+        <v>13.96551820384434</v>
       </c>
       <c r="C2">
-        <v>7.212770921509172</v>
+        <v>6.932182204300521</v>
       </c>
       <c r="D2">
-        <v>6.226712893275025</v>
+        <v>6.278451142166657</v>
       </c>
       <c r="E2">
-        <v>8.231000549482511</v>
+        <v>8.152882406923409</v>
       </c>
       <c r="F2">
-        <v>21.32120166095764</v>
+        <v>20.76697262537938</v>
       </c>
       <c r="G2">
-        <v>23.40702548418676</v>
+        <v>22.09979625241551</v>
       </c>
       <c r="H2">
-        <v>2.716383125165104</v>
+        <v>2.59105967815387</v>
       </c>
       <c r="J2">
-        <v>9.621196327580432</v>
+        <v>9.671168213491525</v>
       </c>
       <c r="K2">
-        <v>15.60439148917591</v>
+        <v>15.01089795040753</v>
       </c>
       <c r="L2">
-        <v>5.935595786868784</v>
+        <v>12.22033371054706</v>
       </c>
       <c r="M2">
-        <v>11.60490956353309</v>
+        <v>9.947477408015192</v>
       </c>
       <c r="N2">
-        <v>7.008794468741875</v>
+        <v>5.867970781475018</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.69506826859926</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.201443850820972</v>
       </c>
       <c r="Q2">
-        <v>15.64276902962322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>15.20918944918082</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.06210476636244</v>
+        <v>13.08200294641503</v>
       </c>
       <c r="C3">
-        <v>7.102978484472952</v>
+        <v>6.737461138435727</v>
       </c>
       <c r="D3">
-        <v>5.997071223208575</v>
+        <v>6.047692303867207</v>
       </c>
       <c r="E3">
-        <v>8.083666856775034</v>
+        <v>8.016237068340491</v>
       </c>
       <c r="F3">
-        <v>21.25764022644685</v>
+        <v>20.73179092975384</v>
       </c>
       <c r="G3">
-        <v>23.4144536805705</v>
+        <v>22.2010656270363</v>
       </c>
       <c r="H3">
-        <v>2.909332348040587</v>
+        <v>2.770259052508812</v>
       </c>
       <c r="J3">
-        <v>9.696764021573113</v>
+        <v>9.715942556661258</v>
       </c>
       <c r="K3">
-        <v>15.77075923660113</v>
+        <v>15.18488974602081</v>
       </c>
       <c r="L3">
-        <v>5.909882949198748</v>
+        <v>12.39672977817364</v>
       </c>
       <c r="M3">
-        <v>10.98094961091267</v>
+        <v>10.06906771362469</v>
       </c>
       <c r="N3">
-        <v>6.796941817341641</v>
+        <v>5.844900963121487</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.06047158340886</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.988492063070817</v>
       </c>
       <c r="Q3">
-        <v>15.73863109332063</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>15.319029531386</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.47043883023051</v>
+        <v>12.5068800941439</v>
       </c>
       <c r="C4">
-        <v>7.034521165139908</v>
+        <v>6.615812596499026</v>
       </c>
       <c r="D4">
-        <v>5.852308077489053</v>
+        <v>5.902395689719459</v>
       </c>
       <c r="E4">
-        <v>7.991898948593974</v>
+        <v>7.931091146057832</v>
       </c>
       <c r="F4">
-        <v>21.22988405422142</v>
+        <v>20.71994575861862</v>
       </c>
       <c r="G4">
-        <v>23.43683658144639</v>
+        <v>22.28157578814998</v>
       </c>
       <c r="H4">
-        <v>3.032135610099082</v>
+        <v>2.884348157129053</v>
       </c>
       <c r="J4">
-        <v>9.746814579097542</v>
+        <v>9.745510552492961</v>
       </c>
       <c r="K4">
-        <v>15.8797353316963</v>
+        <v>15.29721780664641</v>
       </c>
       <c r="L4">
-        <v>5.893653455601109</v>
+        <v>12.50998420164842</v>
       </c>
       <c r="M4">
-        <v>10.57838510344027</v>
+        <v>10.16161448098184</v>
       </c>
       <c r="N4">
-        <v>6.663467218414715</v>
+        <v>5.830276194068687</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.65115784228756</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.854808847839092</v>
       </c>
       <c r="Q4">
-        <v>15.80572020141942</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>15.39347163798485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.22080448756644</v>
+        <v>12.2643026907865</v>
       </c>
       <c r="C5">
-        <v>7.006378416506692</v>
+        <v>6.565776747311666</v>
       </c>
       <c r="D5">
-        <v>5.792446030694339</v>
+        <v>5.842359125481381</v>
       </c>
       <c r="E5">
-        <v>7.954199571773082</v>
+        <v>7.896101888084455</v>
       </c>
       <c r="F5">
-        <v>21.22134759467718</v>
+        <v>20.71751209022205</v>
       </c>
       <c r="G5">
-        <v>23.45028850057391</v>
+        <v>22.31879976273719</v>
       </c>
       <c r="H5">
-        <v>3.083281622806166</v>
+        <v>2.931873042020371</v>
       </c>
       <c r="J5">
-        <v>9.768110434392142</v>
+        <v>9.758074435582211</v>
       </c>
       <c r="K5">
-        <v>15.92582196026139</v>
+        <v>15.34435033930991</v>
       </c>
       <c r="L5">
-        <v>5.886927299846679</v>
+        <v>12.55739254203525</v>
       </c>
       <c r="M5">
-        <v>10.40953390535986</v>
+        <v>10.20370116414223</v>
       </c>
       <c r="N5">
-        <v>6.608277104604723</v>
+        <v>5.824199330647399</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.47951246344787</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.7996582247877</v>
       </c>
       <c r="Q5">
-        <v>15.83506755015896</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>15.42551598697871</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.17883750720179</v>
+        <v>12.22352710156497</v>
       </c>
       <c r="C6">
-        <v>7.00169098888252</v>
+        <v>6.557442266640246</v>
       </c>
       <c r="D6">
-        <v>5.782455828812713</v>
+        <v>5.832342671867472</v>
       </c>
       <c r="E6">
-        <v>7.947922047161779</v>
+        <v>7.890274977507342</v>
       </c>
       <c r="F6">
-        <v>21.22009588317754</v>
+        <v>20.71725074606055</v>
       </c>
       <c r="G6">
-        <v>23.45277928957609</v>
+        <v>22.32524183437051</v>
       </c>
       <c r="H6">
-        <v>3.091841365512815</v>
+        <v>2.939827220081628</v>
       </c>
       <c r="J6">
-        <v>9.771700424548534</v>
+        <v>9.760191533575966</v>
       </c>
       <c r="K6">
-        <v>15.93357488295407</v>
+        <v>15.35225800613441</v>
       </c>
       <c r="L6">
-        <v>5.885803590740012</v>
+        <v>12.56534089576015</v>
       </c>
       <c r="M6">
-        <v>10.38120918727759</v>
+        <v>10.21095000889308</v>
       </c>
       <c r="N6">
-        <v>6.599066349642007</v>
+        <v>5.823183152611632</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.45072149080898</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.79046176071953</v>
       </c>
       <c r="Q6">
-        <v>15.84006017792999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>15.43093865530915</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.46710671606024</v>
+        <v>12.50438432063601</v>
       </c>
       <c r="C7">
-        <v>7.034142594962847</v>
+        <v>6.612304555899888</v>
       </c>
       <c r="D7">
-        <v>5.851504172560737</v>
+        <v>5.904866115315158</v>
       </c>
       <c r="E7">
-        <v>7.991391715915472</v>
+        <v>7.931350815672464</v>
       </c>
       <c r="F7">
-        <v>21.22975777622107</v>
+        <v>20.70903132041659</v>
       </c>
       <c r="G7">
-        <v>23.4370006648658</v>
+        <v>22.34260831924838</v>
       </c>
       <c r="H7">
-        <v>3.032820900803196</v>
+        <v>2.885504332933789</v>
       </c>
       <c r="J7">
-        <v>9.747098162565463</v>
+        <v>9.717928664430051</v>
       </c>
       <c r="K7">
-        <v>15.88035012677958</v>
+        <v>15.29269945528287</v>
       </c>
       <c r="L7">
-        <v>5.893563201708036</v>
+        <v>12.50545867292116</v>
       </c>
       <c r="M7">
-        <v>10.57612723262039</v>
+        <v>10.15956321334079</v>
       </c>
       <c r="N7">
-        <v>6.662726059511299</v>
+        <v>5.829863078277778</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.64770561658535</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.853934693776663</v>
       </c>
       <c r="Q7">
-        <v>15.80610793929259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>15.3862561162404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.6643764350529</v>
+        <v>13.66994518791011</v>
       </c>
       <c r="C8">
-        <v>7.175141084593882</v>
+        <v>6.856269782269589</v>
       </c>
       <c r="D8">
-        <v>6.148356483794356</v>
+        <v>6.210133440683995</v>
       </c>
       <c r="E8">
-        <v>8.180485213957864</v>
+        <v>8.108499750831776</v>
       </c>
       <c r="F8">
-        <v>21.29691145066849</v>
+        <v>20.7170907717381</v>
       </c>
       <c r="G8">
-        <v>23.40579795226236</v>
+        <v>22.3337989215047</v>
       </c>
       <c r="H8">
-        <v>2.782021217104248</v>
+        <v>2.653603691567526</v>
       </c>
       <c r="J8">
-        <v>9.646482783436957</v>
+        <v>9.596020077608882</v>
       </c>
       <c r="K8">
-        <v>15.6603145481229</v>
+        <v>15.05287394470542</v>
       </c>
       <c r="L8">
-        <v>5.926820793699958</v>
+        <v>12.26474610716226</v>
       </c>
       <c r="M8">
-        <v>11.39385194729221</v>
+        <v>9.975329887606264</v>
       </c>
       <c r="N8">
-        <v>6.936484586985468</v>
+        <v>5.859081228542609</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.47684639113024</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.128249669289597</v>
       </c>
       <c r="Q8">
-        <v>15.67407671582901</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>15.22035542123179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.74485026347218</v>
+        <v>15.69433857792689</v>
       </c>
       <c r="C9">
-        <v>7.442655779751529</v>
+        <v>7.326054395921397</v>
       </c>
       <c r="D9">
-        <v>6.697694600706063</v>
+        <v>6.764844949921595</v>
       </c>
       <c r="E9">
-        <v>8.539911972464468</v>
+        <v>8.44239795457694</v>
       </c>
       <c r="F9">
-        <v>21.52054107000554</v>
+        <v>20.85268569973331</v>
       </c>
       <c r="G9">
-        <v>23.49258949268502</v>
+        <v>22.24730549009874</v>
       </c>
       <c r="H9">
-        <v>2.323940761515263</v>
+        <v>2.228627781323091</v>
       </c>
       <c r="J9">
-        <v>9.479027588828401</v>
+        <v>9.471653373562953</v>
       </c>
       <c r="K9">
-        <v>15.28483970143616</v>
+        <v>14.64600049523695</v>
       </c>
       <c r="L9">
-        <v>5.988602902119224</v>
+        <v>11.85032021954625</v>
       </c>
       <c r="M9">
-        <v>12.84014761116517</v>
+        <v>9.770528695822259</v>
       </c>
       <c r="N9">
-        <v>7.444170769283589</v>
+        <v>5.914008705659243</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.94763080414407</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.640898466958566</v>
       </c>
       <c r="Q9">
-        <v>15.48331169490961</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>14.98072370364932</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.09943706120472</v>
+        <v>17.01805187103647</v>
       </c>
       <c r="C10">
-        <v>7.660347619359184</v>
+        <v>7.667769902896397</v>
       </c>
       <c r="D10">
-        <v>7.038152683820595</v>
+        <v>7.12509257893785</v>
       </c>
       <c r="E10">
-        <v>8.709071121002884</v>
+        <v>8.59968416138169</v>
       </c>
       <c r="F10">
-        <v>21.63108415087586</v>
+        <v>20.84057051763856</v>
       </c>
       <c r="G10">
-        <v>23.50606939087311</v>
+        <v>22.51381211150253</v>
       </c>
       <c r="H10">
-        <v>2.035380086445366</v>
+        <v>1.965434199072123</v>
       </c>
       <c r="J10">
-        <v>9.351602884732339</v>
+        <v>9.222265962771019</v>
       </c>
       <c r="K10">
-        <v>14.99267408952163</v>
+        <v>14.30266666660616</v>
       </c>
       <c r="L10">
-        <v>6.010154834997204</v>
+        <v>11.51660274044459</v>
       </c>
       <c r="M10">
-        <v>13.81159918464579</v>
+        <v>9.655116387040097</v>
       </c>
       <c r="N10">
-        <v>7.724355763325478</v>
+        <v>5.931031214953328</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.92862549460653</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.924010806077169</v>
       </c>
       <c r="Q10">
-        <v>15.32786809231015</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>14.74583491184973</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.57396082675869</v>
+        <v>17.50461441329181</v>
       </c>
       <c r="C11">
-        <v>8.01182655787669</v>
+        <v>8.029084510062004</v>
       </c>
       <c r="D11">
-        <v>6.844855147768525</v>
+        <v>6.961314601657414</v>
       </c>
       <c r="E11">
-        <v>8.080378555379879</v>
+        <v>7.988860751368324</v>
       </c>
       <c r="F11">
-        <v>20.71713577091886</v>
+        <v>19.85450959935958</v>
       </c>
       <c r="G11">
-        <v>22.24437720907973</v>
+        <v>22.0854638782111</v>
       </c>
       <c r="H11">
-        <v>2.942762534934271</v>
+        <v>2.902269236175918</v>
       </c>
       <c r="J11">
-        <v>9.091976516443118</v>
+        <v>8.75297045976375</v>
       </c>
       <c r="K11">
-        <v>14.416457251784</v>
+        <v>13.73580807554685</v>
       </c>
       <c r="L11">
-        <v>5.873330967831868</v>
+        <v>11.09215389097635</v>
       </c>
       <c r="M11">
-        <v>14.29835728335897</v>
+        <v>9.25744074073857</v>
       </c>
       <c r="N11">
-        <v>7.234268639130029</v>
+        <v>5.808429192665765</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.39679294872922</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.418852135705707</v>
       </c>
       <c r="Q11">
-        <v>14.7417651720458</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>14.11544883014182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.69923122462818</v>
+        <v>17.64444022620601</v>
       </c>
       <c r="C12">
-        <v>8.283806561164686</v>
+        <v>8.284489937636685</v>
       </c>
       <c r="D12">
-        <v>6.606927234934229</v>
+        <v>6.73367726063859</v>
       </c>
       <c r="E12">
-        <v>7.581045898424144</v>
+        <v>7.502601649467152</v>
       </c>
       <c r="F12">
-        <v>19.91448862327579</v>
+        <v>19.06007669388871</v>
       </c>
       <c r="G12">
-        <v>21.16508692316153</v>
+        <v>21.40959393890764</v>
       </c>
       <c r="H12">
-        <v>4.271753754083131</v>
+        <v>4.244938192771345</v>
       </c>
       <c r="J12">
-        <v>8.899464174045333</v>
+        <v>8.533133640000914</v>
       </c>
       <c r="K12">
-        <v>14.00361854673174</v>
+        <v>13.36524648606753</v>
       </c>
       <c r="L12">
-        <v>5.813162635572032</v>
+        <v>10.84183803531085</v>
       </c>
       <c r="M12">
-        <v>14.51359542833688</v>
+        <v>8.957740814556317</v>
       </c>
       <c r="N12">
-        <v>6.774545234409882</v>
+        <v>5.761656261627248</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.59704553372318</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.945781412937787</v>
       </c>
       <c r="Q12">
-        <v>14.27839027114374</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>13.6642307221552</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.56779724760307</v>
+        <v>17.52918146117899</v>
       </c>
       <c r="C13">
-        <v>8.509366572618571</v>
+        <v>8.482662723016281</v>
       </c>
       <c r="D13">
-        <v>6.315370435294001</v>
+        <v>6.431625366956066</v>
       </c>
       <c r="E13">
-        <v>7.162395774658014</v>
+        <v>7.093955416423649</v>
       </c>
       <c r="F13">
-        <v>19.14780665302002</v>
+        <v>18.38430609654644</v>
       </c>
       <c r="G13">
-        <v>20.16042236834526</v>
+        <v>20.34097515917144</v>
       </c>
       <c r="H13">
-        <v>5.670516461604748</v>
+        <v>5.648444624622181</v>
       </c>
       <c r="J13">
-        <v>8.747749508740398</v>
+        <v>8.475092790555353</v>
       </c>
       <c r="K13">
-        <v>13.69563369014298</v>
+        <v>13.12951586272496</v>
       </c>
       <c r="L13">
-        <v>5.807812907972234</v>
+        <v>10.69582571984229</v>
       </c>
       <c r="M13">
-        <v>14.53880073980268</v>
+        <v>8.733318459276482</v>
       </c>
       <c r="N13">
-        <v>6.308065988962309</v>
+        <v>5.768557647545427</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.61084566098317</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.467148975222617</v>
       </c>
       <c r="Q13">
-        <v>13.88341963772283</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>13.33752600946892</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.35780945417381</v>
+        <v>17.33151253971347</v>
       </c>
       <c r="C14">
-        <v>8.647927243771617</v>
+        <v>8.597368043336932</v>
       </c>
       <c r="D14">
-        <v>6.084627087641548</v>
+        <v>6.184685145102295</v>
       </c>
       <c r="E14">
-        <v>6.926277895235631</v>
+        <v>6.864410310170848</v>
       </c>
       <c r="F14">
-        <v>18.63286388430264</v>
+        <v>17.96492150152972</v>
       </c>
       <c r="G14">
-        <v>19.50049920173145</v>
+        <v>19.44605135546786</v>
       </c>
       <c r="H14">
-        <v>6.669030382383617</v>
+        <v>6.6480907122791</v>
       </c>
       <c r="J14">
-        <v>8.661687809140508</v>
+        <v>8.490151159684377</v>
       </c>
       <c r="K14">
-        <v>13.5337363276808</v>
+        <v>13.02539220125934</v>
       </c>
       <c r="L14">
-        <v>5.836045778944818</v>
+        <v>10.63458785394616</v>
       </c>
       <c r="M14">
-        <v>14.47087652622177</v>
+        <v>8.616657367088179</v>
       </c>
       <c r="N14">
-        <v>5.982819651013202</v>
+        <v>5.803810246289881</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.53629872123973</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.13432813955579</v>
       </c>
       <c r="Q14">
-        <v>13.64257267183535</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>13.16444481073295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.2508049186622</v>
+        <v>17.22801486705203</v>
       </c>
       <c r="C15">
-        <v>8.66907027582848</v>
+        <v>8.611212149852653</v>
       </c>
       <c r="D15">
-        <v>6.017025110742382</v>
+        <v>6.109446101525588</v>
       </c>
       <c r="E15">
-        <v>6.877221747244004</v>
+        <v>6.817111009682984</v>
       </c>
       <c r="F15">
-        <v>18.5173915397624</v>
+        <v>17.8858528278597</v>
       </c>
       <c r="G15">
-        <v>19.3593334160743</v>
+        <v>19.17263430836601</v>
       </c>
       <c r="H15">
-        <v>6.902492429834411</v>
+        <v>6.881199861223402</v>
       </c>
       <c r="J15">
-        <v>8.649714922155409</v>
+        <v>8.518388287554734</v>
       </c>
       <c r="K15">
-        <v>13.51565648549159</v>
+        <v>13.02438414004949</v>
       </c>
       <c r="L15">
-        <v>5.846134577408034</v>
+        <v>10.63506004504118</v>
       </c>
       <c r="M15">
-        <v>14.41310335893875</v>
+        <v>8.60498132322636</v>
       </c>
       <c r="N15">
-        <v>5.900628377697836</v>
+        <v>5.815243049356233</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.47755286719315</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>6.050715844272203</v>
       </c>
       <c r="Q15">
-        <v>13.5995059348669</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>13.14606332488828</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.71556693121737</v>
+        <v>16.69804397934905</v>
       </c>
       <c r="C16">
-        <v>8.530466968761347</v>
+        <v>8.45634451332085</v>
       </c>
       <c r="D16">
-        <v>5.919771384093826</v>
+        <v>5.981882372870701</v>
       </c>
       <c r="E16">
-        <v>6.884429054001558</v>
+        <v>6.825781533295082</v>
       </c>
       <c r="F16">
-        <v>18.62225594906764</v>
+        <v>18.10152210702694</v>
       </c>
       <c r="G16">
-        <v>19.5548735529686</v>
+        <v>18.76883715389541</v>
       </c>
       <c r="H16">
-        <v>6.711564076007607</v>
+        <v>6.684013042114518</v>
       </c>
       <c r="J16">
-        <v>8.735876782226622</v>
+        <v>8.76003772876922</v>
       </c>
       <c r="K16">
-        <v>13.70779830625807</v>
+        <v>13.245286155823</v>
       </c>
       <c r="L16">
-        <v>5.833317689788183</v>
+        <v>10.78066250657664</v>
       </c>
       <c r="M16">
-        <v>14.01164556855835</v>
+        <v>8.752371326482688</v>
       </c>
       <c r="N16">
-        <v>5.863061465979913</v>
+        <v>5.800858275675457</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.08152878455421</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>6.016755628091447</v>
       </c>
       <c r="Q16">
-        <v>13.74879882610319</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>13.36550634484834</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.41302875517648</v>
+        <v>16.39371219448897</v>
       </c>
       <c r="C17">
-        <v>8.347530330053168</v>
+        <v>8.267948645285509</v>
       </c>
       <c r="D17">
-        <v>5.971109408167383</v>
+        <v>6.022460178933104</v>
       </c>
       <c r="E17">
-        <v>7.005269618003168</v>
+        <v>6.94321538712363</v>
       </c>
       <c r="F17">
-        <v>18.9756782525905</v>
+        <v>18.47968561241212</v>
       </c>
       <c r="G17">
-        <v>20.05289058002836</v>
+        <v>19.00822884920556</v>
       </c>
       <c r="H17">
-        <v>6.005913322065959</v>
+        <v>5.971603437756859</v>
       </c>
       <c r="J17">
-        <v>8.847204357862051</v>
+        <v>8.936932206434404</v>
       </c>
       <c r="K17">
-        <v>13.9381256874473</v>
+        <v>13.46807154279958</v>
       </c>
       <c r="L17">
-        <v>5.804109687145447</v>
+        <v>10.93502788734381</v>
       </c>
       <c r="M17">
-        <v>13.73499643958599</v>
+        <v>8.91737853982756</v>
       </c>
       <c r="N17">
-        <v>6.00643680365127</v>
+        <v>5.767495852489941</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.81146019887687</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.166303640534293</v>
       </c>
       <c r="Q17">
-        <v>13.98954490783725</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>13.6192508872855</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.2848081099439</v>
+        <v>16.25594061779935</v>
       </c>
       <c r="C18">
-        <v>8.114107325648432</v>
+        <v>8.041612525789203</v>
       </c>
       <c r="D18">
-        <v>6.156438438634863</v>
+        <v>6.206487902299246</v>
       </c>
       <c r="E18">
-        <v>7.291262219536879</v>
+        <v>7.219946858803329</v>
       </c>
       <c r="F18">
-        <v>19.58517488703467</v>
+        <v>19.06465216777861</v>
       </c>
       <c r="G18">
-        <v>20.87095819805327</v>
+        <v>19.67464497148455</v>
       </c>
       <c r="H18">
-        <v>4.813143326541534</v>
+        <v>4.768894223798123</v>
       </c>
       <c r="J18">
-        <v>8.993907970881882</v>
+        <v>9.10166216142378</v>
       </c>
       <c r="K18">
-        <v>14.23738839898491</v>
+        <v>13.73510503782544</v>
       </c>
       <c r="L18">
-        <v>5.787529100936758</v>
+        <v>11.12910466482582</v>
       </c>
       <c r="M18">
-        <v>13.54043928454139</v>
+        <v>9.123038185078492</v>
       </c>
       <c r="N18">
-        <v>6.337516151653849</v>
+        <v>5.743366393575903</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.62690521334224</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.50658590307925</v>
       </c>
       <c r="Q18">
-        <v>14.33910966996814</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>13.94907434800177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.30864865183432</v>
+        <v>16.26426499600985</v>
       </c>
       <c r="C19">
-        <v>7.86993917551329</v>
+        <v>7.812782431347773</v>
       </c>
       <c r="D19">
-        <v>6.433714548567678</v>
+        <v>6.487690207542475</v>
       </c>
       <c r="E19">
-        <v>7.758407289291615</v>
+        <v>7.673256232959408</v>
       </c>
       <c r="F19">
-        <v>20.36578997561509</v>
+        <v>19.78956941719828</v>
       </c>
       <c r="G19">
-        <v>21.90242267755469</v>
+        <v>20.59650940411082</v>
       </c>
       <c r="H19">
-        <v>3.439860338900672</v>
+        <v>3.379962196054972</v>
       </c>
       <c r="J19">
-        <v>9.161627599783364</v>
+        <v>9.260035603218739</v>
       </c>
       <c r="K19">
-        <v>14.58733745755381</v>
+        <v>14.03501593320724</v>
       </c>
       <c r="L19">
-        <v>5.826262405415748</v>
+        <v>11.35223365907225</v>
       </c>
       <c r="M19">
-        <v>13.43020820144366</v>
+        <v>9.359106306061467</v>
       </c>
       <c r="N19">
-        <v>6.813134221464718</v>
+        <v>5.770910273079227</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.52913578405311</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.993712562966685</v>
       </c>
       <c r="Q19">
-        <v>14.7592909645542</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>14.32851045887824</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.75384757282712</v>
+        <v>16.67834270260315</v>
       </c>
       <c r="C20">
-        <v>7.604795435921688</v>
+        <v>7.589680614225576</v>
       </c>
       <c r="D20">
-        <v>6.948457537580523</v>
+        <v>7.020111694063097</v>
       </c>
       <c r="E20">
-        <v>8.661157904676855</v>
+        <v>8.552275730654486</v>
       </c>
       <c r="F20">
-        <v>21.5929812685783</v>
+        <v>20.87278346502809</v>
       </c>
       <c r="G20">
-        <v>23.48898244095022</v>
+        <v>22.20725416716144</v>
       </c>
       <c r="H20">
-        <v>2.109345347494414</v>
+        <v>2.031352458847551</v>
       </c>
       <c r="J20">
-        <v>9.382692913231327</v>
+        <v>9.376813504677846</v>
       </c>
       <c r="K20">
-        <v>15.06457664864564</v>
+        <v>14.40663146105412</v>
       </c>
       <c r="L20">
-        <v>6.003570829386542</v>
+        <v>11.61309776470261</v>
       </c>
       <c r="M20">
-        <v>13.56366724307296</v>
+        <v>9.69271919437595</v>
       </c>
       <c r="N20">
-        <v>7.648677899289782</v>
+        <v>5.926631270534617</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.68137917913044</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.847791505952377</v>
       </c>
       <c r="Q20">
-        <v>15.36286775862141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>14.8294181850909</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.76249994257439</v>
+        <v>17.67173022177094</v>
       </c>
       <c r="C21">
-        <v>7.727067159687431</v>
+        <v>7.757856922278355</v>
       </c>
       <c r="D21">
-        <v>7.263333549415019</v>
+        <v>7.403739598185677</v>
       </c>
       <c r="E21">
-        <v>8.922514706352539</v>
+        <v>8.816368928019717</v>
       </c>
       <c r="F21">
-        <v>21.8723171923154</v>
+        <v>20.84360463219609</v>
       </c>
       <c r="G21">
-        <v>23.76387650912788</v>
+        <v>23.87630812948702</v>
       </c>
       <c r="H21">
-        <v>1.851752902455744</v>
+        <v>1.799897675800277</v>
       </c>
       <c r="J21">
-        <v>9.32842618120932</v>
+        <v>8.794419351356385</v>
       </c>
       <c r="K21">
-        <v>14.93527151075008</v>
+        <v>14.12659493658775</v>
       </c>
       <c r="L21">
-        <v>6.05343478491154</v>
+        <v>11.35143055253623</v>
       </c>
       <c r="M21">
-        <v>14.26556361279687</v>
+        <v>9.608926881986118</v>
       </c>
       <c r="N21">
-        <v>7.969143019865276</v>
+        <v>5.965026598649886</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.37663064188193</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.171750459527233</v>
       </c>
       <c r="Q21">
-        <v>15.35344165812544</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>14.60163376182213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.38638810234415</v>
+        <v>18.28808307342093</v>
       </c>
       <c r="C22">
-        <v>7.819600168113959</v>
+        <v>7.875648740366831</v>
       </c>
       <c r="D22">
-        <v>7.443663992630878</v>
+        <v>7.631730482269043</v>
       </c>
       <c r="E22">
-        <v>9.047037495687976</v>
+        <v>8.945717185514104</v>
       </c>
       <c r="F22">
-        <v>22.00874736165154</v>
+        <v>20.76550195328584</v>
       </c>
       <c r="G22">
-        <v>23.8876939410288</v>
+        <v>25.05983307159537</v>
       </c>
       <c r="H22">
-        <v>1.700007487032017</v>
+        <v>1.664688417110726</v>
       </c>
       <c r="J22">
-        <v>9.284782524841347</v>
+        <v>8.457071418238304</v>
       </c>
       <c r="K22">
-        <v>14.83136903139714</v>
+        <v>13.91796465512079</v>
       </c>
       <c r="L22">
-        <v>6.074475411672824</v>
+        <v>11.16842444242489</v>
       </c>
       <c r="M22">
-        <v>14.70984187223677</v>
+        <v>9.541413932130913</v>
       </c>
       <c r="N22">
-        <v>8.137032757890905</v>
+        <v>5.979578530707965</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.8151142261773</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.341231377421602</v>
       </c>
       <c r="Q22">
-        <v>15.32584446784876</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>14.41998416821113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.05602922491964</v>
+        <v>17.96019257826873</v>
       </c>
       <c r="C23">
-        <v>7.770343101144787</v>
+        <v>7.819517943856074</v>
       </c>
       <c r="D23">
-        <v>7.347884752001513</v>
+        <v>7.503226137658974</v>
       </c>
       <c r="E23">
-        <v>8.980750406361505</v>
+        <v>8.874624951118378</v>
       </c>
       <c r="F23">
-        <v>21.93485966029425</v>
+        <v>20.83407706361401</v>
       </c>
       <c r="G23">
-        <v>23.81971146637631</v>
+        <v>24.24700639622098</v>
       </c>
       <c r="H23">
-        <v>1.780701759201723</v>
+        <v>1.735775681452611</v>
       </c>
       <c r="J23">
-        <v>9.307702497425744</v>
+        <v>8.674652806224936</v>
       </c>
       <c r="K23">
-        <v>14.8860995642967</v>
+        <v>14.04221212621546</v>
       </c>
       <c r="L23">
-        <v>6.063275173611701</v>
+        <v>11.27379699579218</v>
       </c>
       <c r="M23">
-        <v>14.47440570435912</v>
+        <v>9.588136778109124</v>
       </c>
       <c r="N23">
-        <v>8.047829297739607</v>
+        <v>5.972445466109323</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.58488123268103</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.251399692726476</v>
       </c>
       <c r="Q23">
-        <v>15.33967141495113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>14.53658352102215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.74705545308875</v>
+        <v>16.67008356550402</v>
       </c>
       <c r="C24">
-        <v>7.581014145832296</v>
+        <v>7.565529212851827</v>
       </c>
       <c r="D24">
-        <v>6.975090226942999</v>
+        <v>7.046733880386506</v>
       </c>
       <c r="E24">
-        <v>8.726002166362944</v>
+        <v>8.615601402223406</v>
       </c>
       <c r="F24">
-        <v>21.67834286728797</v>
+        <v>20.95373797733139</v>
       </c>
       <c r="G24">
-        <v>23.60321820983328</v>
+        <v>22.30113487397329</v>
       </c>
       <c r="H24">
-        <v>2.092902265856199</v>
+        <v>2.014665128060733</v>
       </c>
       <c r="J24">
-        <v>9.402545479318089</v>
+        <v>9.398813046897047</v>
       </c>
       <c r="K24">
-        <v>15.1089117117524</v>
+        <v>14.44567048582693</v>
       </c>
       <c r="L24">
-        <v>6.020195639433219</v>
+        <v>11.6428124736435</v>
       </c>
       <c r="M24">
-        <v>13.54582121045763</v>
+        <v>9.722170843777542</v>
       </c>
       <c r="N24">
-        <v>7.70131557030731</v>
+        <v>5.941762512728694</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.66478343464345</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.901741461680671</v>
       </c>
       <c r="Q24">
-        <v>15.41139358914751</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>14.87448585659141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.21048421116422</v>
+        <v>15.17337657047113</v>
       </c>
       <c r="C25">
-        <v>7.371340728497895</v>
+        <v>7.205170993401837</v>
       </c>
       <c r="D25">
-        <v>6.552972441225838</v>
+        <v>6.61435690107295</v>
       </c>
       <c r="E25">
-        <v>8.444035061537679</v>
+        <v>8.352283547101978</v>
       </c>
       <c r="F25">
-        <v>21.44985592266184</v>
+        <v>20.82213551668464</v>
       </c>
       <c r="G25">
-        <v>23.45235394051155</v>
+        <v>22.16537276506936</v>
       </c>
       <c r="H25">
-        <v>2.444344613635638</v>
+        <v>2.339664732913133</v>
       </c>
       <c r="J25">
-        <v>9.521004895687593</v>
+        <v>9.541414596847776</v>
       </c>
       <c r="K25">
-        <v>15.38014596842492</v>
+        <v>14.75826284899525</v>
       </c>
       <c r="L25">
-        <v>5.972246804912672</v>
+        <v>11.96415251462115</v>
       </c>
       <c r="M25">
-        <v>12.46606546544719</v>
+        <v>9.814659086859354</v>
       </c>
       <c r="N25">
-        <v>7.310236919846111</v>
+        <v>5.899929786538824</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.56858408109855</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.505465757263327</v>
       </c>
       <c r="Q25">
-        <v>15.52721214482593</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>15.04976859638342</v>
       </c>
     </row>
   </sheetData>
